--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,8 +246,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,23 +267,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -279,8 +276,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14:AF14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -765,13 +774,13 @@
   <sheetData>
     <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="AF3" s="2"/>
@@ -830,144 +839,144 @@
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
     </row>
     <row r="12" spans="2:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -978,13 +987,13 @@
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -998,15 +1007,15 @@
         <v>1</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
     </row>
     <row r="15" spans="2:33" ht="2.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
@@ -1046,13 +1055,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1207,12 +1216,12 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1240,12 +1249,12 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1273,11 +1282,11 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1306,11 +1315,11 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1375,87 +1384,87 @@
       <c r="B26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
       <c r="AH26" s="1"/>
     </row>
     <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
       <c r="AH27" s="1"/>
     </row>
     <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
     </row>
     <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I29" s="8"/>
@@ -1484,435 +1493,435 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
     </row>
     <row r="37" spans="2:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
-      <c r="AF42" s="12"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="12"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
@@ -1950,7 +1959,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
     <mergeCell ref="AB2:AF2"/>
     <mergeCell ref="B9:AF9"/>
     <mergeCell ref="B10:AG11"/>
@@ -1964,6 +1973,10 @@
     <mergeCell ref="I28:AF28"/>
     <mergeCell ref="B31:AF35"/>
     <mergeCell ref="B37:AF43"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="94" orientation="portrait" r:id="rId1"/>
@@ -1972,15 +1985,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2197,21 +2201,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2230,7 +2235,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CEBEA7B-59B1-46CE-A437-47DAA38AB618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2245,4 +2250,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Form WN" sheetId="6" r:id="rId1"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Chong Chi Fam</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date:</t>
   </si>
@@ -249,6 +246,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,24 +283,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -328,7 +325,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E63BE74-5ED3-444A-A641-505BBA0CA1E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E63BE74-5ED3-444A-A641-505BBA0CA1E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,53 +756,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2" max="32" width="2.7265625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.54296875" style="1" customWidth="1"/>
-    <col min="34" max="42" width="2.7265625" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
+    <col min="2" max="32" width="2.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
+    <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AB2" s="18" t="s">
-        <v>15</v>
+    <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB2" s="11" t="s">
+        <v>14</v>
       </c>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+    </row>
+    <row r="3" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="K5" s="4" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="K6" s="4" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="K7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -838,162 +835,162 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+    </row>
+    <row r="12" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-    </row>
-    <row r="12" spans="2:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1004,20 +1001,20 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-    </row>
-    <row r="15" spans="2:33" ht="2.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+    </row>
+    <row r="15" spans="2:33" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1050,18 +1047,18 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1083,7 +1080,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1116,7 +1113,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1149,7 +1146,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1182,7 +1179,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1215,7 +1212,7 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -1248,7 +1245,7 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -1281,12 +1278,12 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1314,12 +1311,12 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1347,7 +1344,7 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1380,93 +1377,93 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AH26" s="1"/>
-    </row>
-    <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-    </row>
-    <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+    </row>
+    <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1492,441 +1489,441 @@
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-    </row>
-    <row r="37" spans="2:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
-        <v>12</v>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+    </row>
+    <row r="37" spans="2:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+    </row>
+    <row r="44" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>11</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1942,30 +1939,22 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="B9:AF9"/>
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="B12:AF12"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="X14:AF14"/>
     <mergeCell ref="B44:AF44"/>
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="I26:AF26"/>
@@ -1977,6 +1966,12 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="B12:AF12"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="X14:AF14"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="94" orientation="portrait" r:id="rId1"/>
@@ -1985,6 +1980,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2201,36 +2211,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2253,9 +2237,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="Form WN" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Date:</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Instructed Work Title:</t>
   </si>
   <si>
-    <t>'BERSATU BERUSAHA BERBAKTI'</t>
-  </si>
-  <si>
     <t>Superintending Officer</t>
   </si>
   <si>
@@ -88,6 +85,105 @@
   </si>
   <si>
     <t>CERTIFICATE OF NON-COMPLETION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is hereby certified that you have failed to complete the Instructed Work mentioned above which was issued to you by the "Date for Completion" stated in S.O.'s Instruction No.:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">was issued to you by the "Date for Completion" stated in  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S.O.'s Instruction No.:</t>
+  </si>
+  <si>
+    <t>dated</t>
+  </si>
+  <si>
+    <t>, or within any extended time  approved under</t>
+  </si>
+  <si>
+    <t>Clause 8.7</t>
+  </si>
+  <si>
+    <t>of the Agreement, i.e. on</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and in my opinion the said Instructed Works  </t>
+  </si>
+  <si>
+    <t>ought to have been completed.</t>
+  </si>
+  <si>
+    <t>In accordance with</t>
+  </si>
+  <si>
+    <t>clause 8.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of the Agreement, you are hereby informed that you are liable to pay </t>
+  </si>
+  <si>
+    <r>
+      <t>or allow to the Government a sum calculated at the rate of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.0219%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> per day of the value of this </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instructed Work, i.e. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>per day as Liquidated and Ascertained Damages for the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the period during which the said Instructed Work shall so remain and have remain incomplete and I </t>
+  </si>
+  <si>
+    <t>shall certify for deduction such damages from any money due or which may become due to you</t>
+  </si>
+  <si>
+    <t>under this Agreement.</t>
+  </si>
+  <si>
+    <t>BERSATU BERUSAHA BERBAKTI'</t>
   </si>
 </sst>
 </file>
@@ -228,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,6 +342,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -264,12 +405,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,14 +414,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,55 +889,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH52"/>
+  <dimension ref="B1:AH53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="AR44" sqref="AR44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="32" width="2.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
-    <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
+    <col min="2" max="32" width="2.7265625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0.54296875" style="1" customWidth="1"/>
+    <col min="34" max="42" width="2.7265625" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:33" ht="15" x14ac:dyDescent="0.25">
-      <c r="AB2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-    </row>
-    <row r="3" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AB2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -835,147 +970,147 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-    </row>
-    <row r="12" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+    </row>
+    <row r="12" spans="2:33" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
@@ -984,13 +1119,13 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1004,17 +1139,17 @@
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-    </row>
-    <row r="15" spans="2:33" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+    </row>
+    <row r="15" spans="2:33" ht="2.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1047,18 +1182,18 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1080,7 +1215,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1113,7 +1248,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1146,7 +1281,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1179,7 +1314,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1212,12 +1347,12 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="10"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1245,12 +1380,12 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="10"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1278,12 +1413,12 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1311,12 +1446,12 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1344,7 +1479,7 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1377,93 +1512,93 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-    </row>
-    <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+    </row>
+    <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1489,479 +1624,573 @@
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
+    <row r="31" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+    </row>
+    <row r="32" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+    </row>
+    <row r="33" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
+      <c r="S33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+    </row>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B34" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-    </row>
-    <row r="37" spans="2:32" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-    </row>
-    <row r="44" spans="2:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
+      <c r="F34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+    </row>
+    <row r="37" spans="2:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-    </row>
-    <row r="49" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B44:AF44"/>
+  <mergeCells count="37">
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="I26:AF26"/>
     <mergeCell ref="I27:AF27"/>
     <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="B31:AF35"/>
-    <mergeCell ref="B37:AF43"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B21:F21"/>
@@ -1972,6 +2201,29 @@
     <mergeCell ref="B12:AF12"/>
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="X14:AF14"/>
+    <mergeCell ref="B31:AG31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:M34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:AH34"/>
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="U32:AB32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:AH33"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:AH37"/>
+    <mergeCell ref="B38:AH38"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="K45:X45"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="P39:AH39"/>
+    <mergeCell ref="B40:AH40"/>
+    <mergeCell ref="B41:AH41"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="94" orientation="portrait" r:id="rId1"/>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Form WN" sheetId="6" r:id="rId1"/>
@@ -190,7 +190,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +258,13 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,10 +331,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,76 +366,74 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,7 +460,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>116681</xdr:colOff>
+      <xdr:colOff>59531</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>58532</xdr:rowOff>
     </xdr:to>
@@ -460,7 +469,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E63BE74-5ED3-444A-A641-505BBA0CA1E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E63BE74-5ED3-444A-A641-505BBA0CA1E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -892,52 +901,57 @@
   <dimension ref="B1:AH53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="AR44" sqref="AR44"/>
+      <selection activeCell="AL38" sqref="AL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2" max="32" width="2.7265625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.54296875" style="1" customWidth="1"/>
-    <col min="34" max="42" width="2.7265625" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="2.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="3.28515625" style="1" customWidth="1"/>
+    <col min="10" max="32" width="2.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="1.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="6" style="1" customWidth="1"/>
+    <col min="35" max="42" width="2.7109375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AB2" s="26" t="s">
+    <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+    </row>
+    <row r="3" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -970,147 +984,147 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-    </row>
-    <row r="12" spans="2:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+    </row>
+    <row r="12" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1119,13 +1133,13 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1139,17 +1153,17 @@
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-    </row>
-    <row r="15" spans="2:33" ht="2.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+    </row>
+    <row r="15" spans="2:33" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1182,18 +1196,18 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1215,7 +1229,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1248,7 +1262,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1281,7 +1295,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1314,7 +1328,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1347,12 +1361,12 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="10"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1380,12 +1394,12 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="10"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1413,12 +1427,12 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1446,12 +1460,12 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1479,7 +1493,7 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1512,93 +1526,93 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-    </row>
-    <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+    </row>
+    <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1624,172 +1638,175 @@
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="31" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="2:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-    </row>
-    <row r="32" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="36"/>
+    </row>
+    <row r="32" spans="2:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="23" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="14"/>
-    </row>
-    <row r="33" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25" t="s">
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+    </row>
+    <row r="33" spans="2:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="25" t="s">
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-    </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+    </row>
+    <row r="34" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="18" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="18" t="s">
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-    </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B35" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
@@ -1811,8 +1828,10 @@
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
       <c r="AF35" s="14"/>
-    </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -1833,233 +1852,235 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="2:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
+    <row r="37" spans="2:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="21" t="s">
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
+    </row>
+    <row r="38" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+    </row>
+    <row r="39" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="15" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B40" s="18" t="s">
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B41" s="18" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B41" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B42" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -2092,7 +2113,7 @@
       <c r="AE43" s="13"/>
       <c r="AF43" s="13"/>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2125,7 +2146,7 @@
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -2135,27 +2156,27 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2171,36 +2192,34 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="I26:AF26"/>
-    <mergeCell ref="I27:AF27"/>
-    <mergeCell ref="I28:AF28"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="B9:AF9"/>
-    <mergeCell ref="B10:AG11"/>
-    <mergeCell ref="B12:AF12"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="X14:AF14"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="K45:X45"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="P39:AH39"/>
+    <mergeCell ref="B40:AH40"/>
+    <mergeCell ref="B41:AH41"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:AH37"/>
+    <mergeCell ref="B38:AH38"/>
     <mergeCell ref="B31:AG31"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="F34:M34"/>
@@ -2212,18 +2231,20 @@
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="O33:R33"/>
     <mergeCell ref="S33:AH33"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:AH37"/>
-    <mergeCell ref="B38:AH38"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="K45:X45"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="P39:AH39"/>
-    <mergeCell ref="B40:AH40"/>
-    <mergeCell ref="B41:AH41"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B10:AG11"/>
+    <mergeCell ref="B12:AF12"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="X14:AF14"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="I26:AF26"/>
+    <mergeCell ref="I27:AF27"/>
+    <mergeCell ref="I28:AF28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="170" scale="94" orientation="portrait" r:id="rId1"/>
@@ -2232,21 +2253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c503d2a7b448377a6cc9e75158e3af5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cea96fa3cc1abdf61d90e2bf9fac8d2" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -2463,10 +2469,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2489,20 +2521,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DC5811-E2D9-4774-B143-A47CE40C3F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90864A59-6AB3-4A4B-906C-17AADC78847C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormWN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Form WN" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date:</t>
   </si>
@@ -87,15 +87,6 @@
     <t>CERTIFICATE OF NON-COMPLETION</t>
   </si>
   <si>
-    <t xml:space="preserve">It is hereby certified that you have failed to complete the Instructed Work mentioned above which was issued to you by the "Date for Completion" stated in S.O.'s Instruction No.:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">was issued to you by the "Date for Completion" stated in  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S.O.'s Instruction No.:</t>
-  </si>
-  <si>
     <t>dated</t>
   </si>
   <si>
@@ -115,36 +106,6 @@
   </si>
   <si>
     <t>In accordance with</t>
-  </si>
-  <si>
-    <t>clause 8.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> of the Agreement, you are hereby informed that you are liable to pay </t>
-  </si>
-  <si>
-    <r>
-      <t>or allow to the Government a sum calculated at the rate of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.0219%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> per day of the value of this </t>
-    </r>
   </si>
   <si>
     <r>
@@ -174,16 +135,64 @@
     <t>per day as Liquidated and Ascertained Damages for the</t>
   </si>
   <si>
-    <t xml:space="preserve">the period during which the said Instructed Work shall so remain and have remain incomplete and I </t>
-  </si>
-  <si>
-    <t>shall certify for deduction such damages from any money due or which may become due to you</t>
-  </si>
-  <si>
     <t>under this Agreement.</t>
   </si>
   <si>
     <t>BERSATU BERUSAHA BERBAKTI'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is hereby  certified  that you have failed to complete the Instructed  Work  mentioned  above which was issued to you by the "Date for Completion" stated in S.O.'s Instruction No.:  </t>
+  </si>
+  <si>
+    <t>shall  certify  for deduction such  damages  from  any  money  due or which may become due to you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the period during which the said Instructed Work shall so  remain  and  have remain incomplete and I </t>
+  </si>
+  <si>
+    <r>
+      <t>or  allow  to  the  Government  a  sum  calculated  at  the rate of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.0219%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> per day of  the  value of this </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> of the  Agreement,  you are hereby informed that you are liable to pay </t>
+  </si>
+  <si>
+    <t>clause  8.11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">was   issued  to   you   by   the    " Date  for Completion "  stated  in    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S.O.'s  Instruction  No. :</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -324,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,38 +363,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -421,7 +421,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +451,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>116681</xdr:colOff>
+      <xdr:colOff>2381</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>58532</xdr:rowOff>
     </xdr:to>
@@ -891,53 +891,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="AR44" sqref="AR44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2" max="32" width="2.7265625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="0.54296875" style="1" customWidth="1"/>
-    <col min="34" max="42" width="2.7265625" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="2.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="2.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="1" customWidth="1"/>
+    <col min="18" max="27" width="2.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3" style="1" customWidth="1"/>
+    <col min="29" max="29" width="2.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="3.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="2.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="4.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="0.5703125" style="1" customWidth="1"/>
+    <col min="34" max="42" width="2.7109375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="AB2" s="26" t="s">
+    <row r="1" spans="2:33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:33" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+    </row>
+    <row r="3" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -970,147 +986,147 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-    </row>
-    <row r="12" spans="2:33" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+    </row>
+    <row r="12" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1119,13 +1135,13 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1139,17 +1155,17 @@
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-    </row>
-    <row r="15" spans="2:33" ht="2.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+    </row>
+    <row r="15" spans="2:33" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1182,18 +1198,18 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1215,7 +1231,7 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1248,7 +1264,7 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1281,7 +1297,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1314,7 +1330,7 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1347,12 +1363,12 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="10"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1380,12 +1396,12 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="10"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1413,12 +1429,12 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1446,12 +1462,12 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1479,7 +1495,7 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1512,93 +1528,93 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-    </row>
-    <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+    </row>
+    <row r="29" spans="2:34" s="7" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1624,45 +1640,46 @@
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="31" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-    </row>
-    <row r="32" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="15"/>
+    </row>
+    <row r="32" spans="2:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -1682,69 +1699,69 @@
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
-      <c r="U32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-    </row>
-    <row r="33" spans="2:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="22"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="15"/>
+    </row>
+    <row r="33" spans="2:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="24"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
-      <c r="S33" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-    </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="S33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+    </row>
+    <row r="34" spans="2:34" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -1754,12 +1771,12 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
       <c r="S34" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
@@ -1777,9 +1794,9 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B35" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -1811,8 +1828,10 @@
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
       <c r="AF35" s="14"/>
-    </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -1832,10 +1851,24 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
-    </row>
-    <row r="37" spans="2:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+    </row>
+    <row r="37" spans="2:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -1843,40 +1876,40 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
-      <c r="L37" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="L37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+    </row>
+    <row r="38" spans="2:34" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -1911,48 +1944,48 @@
       <c r="AG38" s="18"/>
       <c r="AH38" s="18"/>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
+    <row r="39" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B40" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B40" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -1987,79 +2020,81 @@
       <c r="AG40" s="18"/>
       <c r="AH40" s="18"/>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B41" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B41" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -2092,7 +2127,7 @@
       <c r="AE43" s="13"/>
       <c r="AF43" s="13"/>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2125,7 +2160,7 @@
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -2135,27 +2170,27 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="K45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2171,22 +2206,22 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
     <mergeCell ref="F16:L16"/>
     <mergeCell ref="I26:AF26"/>
     <mergeCell ref="I27:AF27"/>
@@ -2206,12 +2241,11 @@
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="O34:R34"/>
     <mergeCell ref="S34:AH34"/>
-    <mergeCell ref="B32:T32"/>
-    <mergeCell ref="U32:AB32"/>
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="O33:R33"/>
     <mergeCell ref="S33:AH33"/>
+    <mergeCell ref="B32:AG32"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:K37"/>
